--- a/Complete-spreadsheets/EO/FP1-list-EO.xlsx
+++ b/Complete-spreadsheets/EO/FP1-list-EO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DDD228-FC21-40FB-B230-DFDF6F49D2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A649DF4-B8CE-47AB-967F-9177BFBFE4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -147,6 +147,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,23 +497,23 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>422.35039357089732</v>
-      </c>
-      <c r="C2" s="3">
-        <v>74.595142255641406</v>
-      </c>
-      <c r="D2" s="3">
-        <v>8.2428734003640809</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.430649949772234</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.718511084201938</v>
-      </c>
-      <c r="G2" s="3">
-        <v>509.33757026087699</v>
+      <c r="B2" s="4">
+        <v>529.19260559156567</v>
+      </c>
+      <c r="C2" s="4">
+        <v>60.926742746307191</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5.5533955000854576</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.4966844858262389</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.5791346405497362</v>
+      </c>
+      <c r="G2" s="5">
+        <v>600.74856296433427</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -521,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -535,22 +536,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="4">
-        <v>529.19260559156567</v>
+        <v>316.33659518555788</v>
       </c>
       <c r="C3" s="4">
-        <v>60.926742746307191</v>
+        <v>16.65910097030277</v>
       </c>
       <c r="D3" s="4">
-        <v>5.5533955000854576</v>
+        <v>8.5563715735845065</v>
       </c>
       <c r="E3" s="4">
-        <v>2.4966844858262389</v>
+        <v>3.0345788952195112</v>
       </c>
       <c r="F3" s="4">
-        <v>2.5791346405497362</v>
-      </c>
-      <c r="G3" s="4">
-        <v>600.74856296433427</v>
+        <v>2.8939379577009579</v>
+      </c>
+      <c r="G3" s="5">
+        <v>347.48058458236562</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -572,23 +573,23 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>11.226097366659211</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5.9499561903556328</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3.6043632319429251</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.6435617907753421</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.7796140416040109</v>
-      </c>
-      <c r="G4" s="3">
-        <v>26.203592621337108</v>
+      <c r="B4" s="4">
+        <v>174.44283746125029</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12.239362354284591</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12.183104782436599</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.4512213899596951</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.015331867030528</v>
+      </c>
+      <c r="G4" s="5">
+        <v>206.33185785496181</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -611,22 +612,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="4">
-        <v>316.33659518555788</v>
+        <v>199.9662362580587</v>
       </c>
       <c r="C5" s="4">
-        <v>16.65910097030277</v>
+        <v>52.394433495313358</v>
       </c>
       <c r="D5" s="4">
-        <v>8.5563715735845065</v>
+        <v>4.3404447309734877</v>
       </c>
       <c r="E5" s="4">
-        <v>3.0345788952195112</v>
+        <v>2.8332559032916849</v>
       </c>
       <c r="F5" s="4">
-        <v>2.8939379577009579</v>
-      </c>
-      <c r="G5" s="4">
-        <v>347.48058458236562</v>
+        <v>3.0561403481864788</v>
+      </c>
+      <c r="G5" s="5">
+        <v>262.59051073582373</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -649,22 +650,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="4">
-        <v>174.44283746125029</v>
+        <v>1503.079396992913</v>
       </c>
       <c r="C6" s="4">
-        <v>12.239362354284591</v>
+        <v>79.093942551996832</v>
       </c>
       <c r="D6" s="4">
-        <v>12.183104782436599</v>
+        <v>5.2286145774423041</v>
       </c>
       <c r="E6" s="4">
-        <v>4.4512213899596951</v>
+        <v>4.6289802401631706</v>
       </c>
       <c r="F6" s="4">
-        <v>3.015331867030528</v>
-      </c>
-      <c r="G6" s="4">
-        <v>206.33185785496181</v>
+        <v>3.2157781631350701</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1595.246712525651</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -687,22 +688,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="4">
-        <v>199.9662362580587</v>
+        <v>105.8971100129361</v>
       </c>
       <c r="C7" s="4">
-        <v>52.394433495313358</v>
+        <v>53.014098320019507</v>
       </c>
       <c r="D7" s="4">
-        <v>4.3404447309734877</v>
+        <v>3.404196167153287</v>
       </c>
       <c r="E7" s="4">
-        <v>2.8332559032916849</v>
+        <v>3.233824184292919</v>
       </c>
       <c r="F7" s="4">
-        <v>3.0561403481864788</v>
-      </c>
-      <c r="G7" s="4">
-        <v>262.59051073582373</v>
+        <v>3.2683620534429498</v>
+      </c>
+      <c r="G7" s="5">
+        <v>168.8175907378448</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -711,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -725,22 +726,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>1503.079396992913</v>
+        <v>795.963940455395</v>
       </c>
       <c r="C8" s="4">
-        <v>79.093942551996832</v>
+        <v>49.725233908552902</v>
       </c>
       <c r="D8" s="4">
-        <v>5.2286145774423041</v>
+        <v>11.76217531054079</v>
       </c>
       <c r="E8" s="4">
-        <v>4.6289802401631706</v>
+        <v>4.1562451918293606</v>
       </c>
       <c r="F8" s="4">
-        <v>3.2157781631350701</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1595.246712525651</v>
+        <v>3.4821582957502581</v>
+      </c>
+      <c r="G8" s="5">
+        <v>865.08975316206829</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -749,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -763,22 +764,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="4">
-        <v>105.8971100129361</v>
+        <v>309.87368123108962</v>
       </c>
       <c r="C9" s="4">
-        <v>53.014098320019507</v>
+        <v>326.31842299747518</v>
       </c>
       <c r="D9" s="4">
-        <v>3.404196167153287</v>
+        <v>11.01336700466071</v>
       </c>
       <c r="E9" s="4">
-        <v>3.233824184292919</v>
+        <v>8.5432178910709524</v>
       </c>
       <c r="F9" s="4">
-        <v>3.2683620534429498</v>
-      </c>
-      <c r="G9" s="4">
-        <v>168.8175907378448</v>
+        <v>4.2667076388688798</v>
+      </c>
+      <c r="G9" s="5">
+        <v>660.01539676316543</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -787,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -801,22 +802,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>795.963940455395</v>
+        <v>88.266919529143166</v>
       </c>
       <c r="C10" s="4">
-        <v>49.725233908552902</v>
+        <v>103.474938566986</v>
       </c>
       <c r="D10" s="4">
-        <v>11.76217531054079</v>
+        <v>4.3144962969603844</v>
       </c>
       <c r="E10" s="4">
-        <v>4.1562451918293606</v>
+        <v>4.3503734668812104</v>
       </c>
       <c r="F10" s="4">
-        <v>3.4821582957502581</v>
-      </c>
-      <c r="G10" s="4">
-        <v>865.08975316206829</v>
+        <v>4.5500455678684517</v>
+      </c>
+      <c r="G10" s="5">
+        <v>204.95677342783921</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -825,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -839,22 +840,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>309.87368123108962</v>
+        <v>37.690913009940147</v>
       </c>
       <c r="C11" s="4">
-        <v>326.31842299747518</v>
+        <v>6.0734304572686861</v>
       </c>
       <c r="D11" s="4">
-        <v>11.01336700466071</v>
+        <v>3.2749602455053219</v>
       </c>
       <c r="E11" s="4">
-        <v>8.5432178910709524</v>
+        <v>2.7517068665190298</v>
       </c>
       <c r="F11" s="4">
-        <v>4.2667076388688798</v>
-      </c>
-      <c r="G11" s="4">
-        <v>660.01539676316543</v>
+        <v>4.8179464204956997</v>
+      </c>
+      <c r="G11" s="5">
+        <v>54.608956999728868</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -863,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -876,23 +877,23 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>90.816642319005268</v>
-      </c>
-      <c r="C12" s="3">
-        <v>23.828793724048811</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6.5875071294671699</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.3957436067480824</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4.3859186586884658</v>
-      </c>
-      <c r="G12" s="3">
-        <v>130.01460543795781</v>
+      <c r="B12" s="4">
+        <v>71.198999569906718</v>
+      </c>
+      <c r="C12" s="4">
+        <v>51.33673499419649</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.11313244052256</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5.6318864425657242</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.7638947883455884</v>
+      </c>
+      <c r="G12" s="5">
+        <v>140.0446482355371</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -901,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -915,22 +916,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>88.266919529143166</v>
+        <v>710.42788422519266</v>
       </c>
       <c r="C13" s="4">
-        <v>103.474938566986</v>
+        <v>147.4834333527912</v>
       </c>
       <c r="D13" s="4">
-        <v>4.3144962969603844</v>
+        <v>12.96353707256702</v>
       </c>
       <c r="E13" s="4">
-        <v>4.3503734668812104</v>
+        <v>9.1219393962311983</v>
       </c>
       <c r="F13" s="4">
-        <v>4.5500455678684517</v>
-      </c>
-      <c r="G13" s="4">
-        <v>204.95677342783921</v>
+        <v>6.2596429017935176</v>
+      </c>
+      <c r="G13" s="5">
+        <v>886.25643694857592</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -939,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -953,22 +954,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>37.690913009940147</v>
+        <v>529.11061600065455</v>
       </c>
       <c r="C14" s="4">
-        <v>6.0734304572686861</v>
+        <v>66.45679515916683</v>
       </c>
       <c r="D14" s="4">
-        <v>3.2749602455053219</v>
+        <v>9.4424113906220164</v>
       </c>
       <c r="E14" s="4">
-        <v>2.7517068665190298</v>
+        <v>4.2644644352908561</v>
       </c>
       <c r="F14" s="4">
-        <v>4.8179464204956997</v>
-      </c>
-      <c r="G14" s="4">
-        <v>54.608956999728868</v>
+        <v>7.5826539012990546</v>
+      </c>
+      <c r="G14" s="5">
+        <v>616.85694088703337</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -977,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -990,23 +991,23 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
-        <v>100.3102530063436</v>
-      </c>
-      <c r="C15" s="3">
-        <v>8.8087371500902947</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2.9170397254318989</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.5657088532171319</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4.8764473028554551</v>
-      </c>
-      <c r="G15" s="3">
-        <v>119.4781860379384</v>
+      <c r="B15" s="4">
+        <v>35.604125020227222</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.903311356164421</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.9216354424095732</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5.08330826920443</v>
+      </c>
+      <c r="F15" s="4">
+        <v>9.6262273195036023</v>
+      </c>
+      <c r="G15" s="5">
+        <v>58.138607407509262</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1015,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>12</v>
@@ -1028,23 +1029,23 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3">
-        <v>735.89465957104562</v>
-      </c>
-      <c r="C16" s="3">
-        <v>130.32923965232069</v>
-      </c>
-      <c r="D16" s="3">
-        <v>16.214145739347241</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4.9688310798218849</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4.9461946315322196</v>
-      </c>
-      <c r="G16" s="3">
-        <v>892.35307067406802</v>
+      <c r="B16" s="4">
+        <v>259.88624295361581</v>
+      </c>
+      <c r="C16" s="4">
+        <v>60.822309766206573</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9.5239859709597869</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.7237935939731379</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10.26914082830908</v>
+      </c>
+      <c r="G16" s="5">
+        <v>349.22547311306442</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1053,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -1066,23 +1067,23 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
-        <v>70.984669311566165</v>
-      </c>
-      <c r="C17" s="3">
-        <v>21.316834875754981</v>
-      </c>
-      <c r="D17" s="3">
-        <v>15.61540734173939</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8.8828285999925534</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5.4797017078686192</v>
-      </c>
-      <c r="G17" s="3">
-        <v>122.27944183692171</v>
+      <c r="B17" s="4">
+        <v>292.36699453659241</v>
+      </c>
+      <c r="C17" s="4">
+        <v>16.572631002862408</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.6122229942940196</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.5986482570591392</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10.492430063409151</v>
+      </c>
+      <c r="G17" s="5">
+        <v>334.64292685421708</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1091,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>28</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -1104,23 +1105,23 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
-        <v>333.8615175446555</v>
-      </c>
-      <c r="C18" s="3">
-        <v>120.0783762284607</v>
-      </c>
-      <c r="D18" s="3">
-        <v>19.864200183149759</v>
-      </c>
-      <c r="E18" s="3">
-        <v>7.4757221930909781</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5.7355171899519863</v>
-      </c>
-      <c r="G18" s="3">
-        <v>487.015333339309</v>
+      <c r="B18" s="4">
+        <v>101.14347219132161</v>
+      </c>
+      <c r="C18" s="4">
+        <v>22.832278664946781</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20.292603609655679</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5.5905261806953854</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10.70888884533935</v>
+      </c>
+      <c r="G18" s="5">
+        <v>160.5677694919589</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1129,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -1143,22 +1144,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="4">
-        <v>71.198999569906718</v>
+        <v>538.51584768868736</v>
       </c>
       <c r="C19" s="4">
-        <v>51.33673499419649</v>
+        <v>138.02726181896011</v>
       </c>
       <c r="D19" s="4">
-        <v>6.11313244052256</v>
+        <v>7.650706811451693</v>
       </c>
       <c r="E19" s="4">
-        <v>5.6318864425657242</v>
+        <v>9.1491872035345878</v>
       </c>
       <c r="F19" s="4">
-        <v>5.7638947883455884</v>
-      </c>
-      <c r="G19" s="4">
-        <v>140.0446482355371</v>
+        <v>13.634602986789851</v>
+      </c>
+      <c r="G19" s="5">
+        <v>706.97760650942382</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1167,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1180,23 +1181,23 @@
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3">
-        <v>1387.3558194004161</v>
-      </c>
-      <c r="C20" s="3">
-        <v>468.22500312342379</v>
-      </c>
-      <c r="D20" s="3">
-        <v>106.3344108006165</v>
-      </c>
-      <c r="E20" s="3">
-        <v>21.162692540401121</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6.0526764913916757</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1989.130602356249</v>
+      <c r="B20" s="4">
+        <v>1254.7449605554809</v>
+      </c>
+      <c r="C20" s="4">
+        <v>172.320086031519</v>
+      </c>
+      <c r="D20" s="4">
+        <v>26.383347488318261</v>
+      </c>
+      <c r="E20" s="4">
+        <v>11.9614631575547</v>
+      </c>
+      <c r="F20" s="4">
+        <v>17.37068650040397</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1482.780543733277</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1205,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -1219,22 +1220,22 @@
         <v>11</v>
       </c>
       <c r="B21" s="4">
-        <v>710.42788422519266</v>
+        <v>421.42346422234363</v>
       </c>
       <c r="C21" s="4">
-        <v>147.4834333527912</v>
+        <v>56.634831521256423</v>
       </c>
       <c r="D21" s="4">
-        <v>12.96353707256702</v>
+        <v>12.1272459985037</v>
       </c>
       <c r="E21" s="4">
-        <v>9.1219393962311983</v>
+        <v>13.403540454597771</v>
       </c>
       <c r="F21" s="4">
-        <v>6.2596429017935176</v>
-      </c>
-      <c r="G21" s="4">
-        <v>886.25643694857592</v>
+        <v>21.303672356215529</v>
+      </c>
+      <c r="G21" s="5">
+        <v>524.89275455291693</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1243,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1256,23 +1257,23 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3">
-        <v>670.27723679236976</v>
-      </c>
-      <c r="C22" s="3">
-        <v>212.54208591580391</v>
-      </c>
-      <c r="D22" s="3">
-        <v>31.658095586502871</v>
-      </c>
-      <c r="E22" s="3">
-        <v>12.06389864321117</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6.2944229132268479</v>
-      </c>
-      <c r="G22" s="3">
-        <v>932.83573985111445</v>
+      <c r="B22" s="4">
+        <v>76.080050716516382</v>
+      </c>
+      <c r="C22" s="4">
+        <v>75.72266663709371</v>
+      </c>
+      <c r="D22" s="4">
+        <v>16.10516240164813</v>
+      </c>
+      <c r="E22" s="4">
+        <v>42.430493110105353</v>
+      </c>
+      <c r="F22" s="4">
+        <v>91.563283328426223</v>
+      </c>
+      <c r="G22" s="5">
+        <v>301.90165619378979</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1281,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -1295,22 +1296,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="4">
-        <v>529.11061600065455</v>
+        <v>59.778547427244362</v>
       </c>
       <c r="C23" s="4">
-        <v>66.45679515916683</v>
+        <v>10.42457440460881</v>
       </c>
       <c r="D23" s="4">
-        <v>9.4424113906220164</v>
+        <v>6.9699348422613054</v>
       </c>
       <c r="E23" s="4">
-        <v>4.2644644352908561</v>
+        <v>19.365447309807379</v>
       </c>
       <c r="F23" s="4">
-        <v>7.5826539012990546</v>
-      </c>
-      <c r="G23" s="4">
-        <v>616.85694088703337</v>
+        <v>94.373569823942034</v>
+      </c>
+      <c r="G23" s="5">
+        <v>190.91207380786389</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1319,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1332,23 +1333,23 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3">
-        <v>463.50583848849971</v>
-      </c>
-      <c r="C24" s="3">
-        <v>45.137596218474513</v>
-      </c>
-      <c r="D24" s="3">
-        <v>9.0210192342320674</v>
-      </c>
-      <c r="E24" s="3">
-        <v>7.0349782901740747</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7.8315127576279204</v>
-      </c>
-      <c r="G24" s="3">
-        <v>532.53094498900828</v>
+      <c r="B24" s="4">
+        <v>306.28148078410152</v>
+      </c>
+      <c r="C24" s="4">
+        <v>51.446613241267769</v>
+      </c>
+      <c r="D24" s="4">
+        <v>48.936191525250571</v>
+      </c>
+      <c r="E24" s="4">
+        <v>67.155981156361833</v>
+      </c>
+      <c r="F24" s="4">
+        <v>119.583430744352</v>
+      </c>
+      <c r="G24" s="5">
+        <v>593.40369745133353</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1357,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
@@ -1371,22 +1372,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>1066.856479198789</v>
+        <v>422.35039357089732</v>
       </c>
       <c r="C25" s="3">
-        <v>226.76536324561229</v>
+        <v>74.595142255641406</v>
       </c>
       <c r="D25" s="3">
-        <v>23.3146558720833</v>
+        <v>8.2428734003640809</v>
       </c>
       <c r="E25" s="3">
-        <v>8.7664401816601014</v>
+        <v>2.430649949772234</v>
       </c>
       <c r="F25" s="3">
-        <v>7.887240726240309</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1333.5901792243851</v>
+        <v>1.718511084201938</v>
+      </c>
+      <c r="G25" s="5">
+        <v>509.33757026087699</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1395,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1408,23 +1409,23 @@
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="4">
-        <v>35.604125020227222</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4.903311356164421</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2.9216354424095732</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5.08330826920443</v>
-      </c>
-      <c r="F26" s="4">
-        <v>9.6262273195036023</v>
-      </c>
-      <c r="G26" s="4">
-        <v>58.138607407509262</v>
+      <c r="B26" s="3">
+        <v>11.226097366659211</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5.9499561903556328</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.6043632319429251</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.6435617907753421</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.7796140416040109</v>
+      </c>
+      <c r="G26" s="5">
+        <v>26.203592621337108</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1433,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -1447,22 +1448,22 @@
         <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>132.1459270823411</v>
+        <v>90.816642319005268</v>
       </c>
       <c r="C27" s="3">
-        <v>22.36101839167468</v>
+        <v>23.828793724048811</v>
       </c>
       <c r="D27" s="3">
-        <v>14.1125092603934</v>
+        <v>6.5875071294671699</v>
       </c>
       <c r="E27" s="3">
-        <v>9.6773391488062046</v>
+        <v>4.3957436067480824</v>
       </c>
       <c r="F27" s="3">
-        <v>9.6295435981926296</v>
-      </c>
-      <c r="G27" s="3">
-        <v>187.92633748140801</v>
+        <v>4.3859186586884658</v>
+      </c>
+      <c r="G27" s="5">
+        <v>130.01460543795781</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1471,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -1485,22 +1486,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="3">
-        <v>280.03150839186219</v>
+        <v>100.3102530063436</v>
       </c>
       <c r="C28" s="3">
-        <v>48.294461237179362</v>
+        <v>8.8087371500902947</v>
       </c>
       <c r="D28" s="3">
-        <v>6.1314325283405342</v>
+        <v>2.9170397254318989</v>
       </c>
       <c r="E28" s="3">
-        <v>7.083352164625162</v>
+        <v>2.5657088532171319</v>
       </c>
       <c r="F28" s="3">
-        <v>10.02106068836383</v>
-      </c>
-      <c r="G28" s="3">
-        <v>351.56181501037111</v>
+        <v>4.8764473028554551</v>
+      </c>
+      <c r="G28" s="5">
+        <v>119.4781860379384</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1509,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1522,23 +1523,23 @@
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="4">
-        <v>259.88624295361581</v>
-      </c>
-      <c r="C29" s="4">
-        <v>60.822309766206573</v>
-      </c>
-      <c r="D29" s="4">
-        <v>9.5239859709597869</v>
-      </c>
-      <c r="E29" s="4">
-        <v>8.7237935939731379</v>
-      </c>
-      <c r="F29" s="4">
-        <v>10.26914082830908</v>
-      </c>
-      <c r="G29" s="4">
-        <v>349.22547311306442</v>
+      <c r="B29" s="3">
+        <v>735.89465957104562</v>
+      </c>
+      <c r="C29" s="3">
+        <v>130.32923965232069</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16.214145739347241</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4.9688310798218849</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4.9461946315322196</v>
+      </c>
+      <c r="G29" s="5">
+        <v>892.35307067406802</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1547,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>24</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -1560,23 +1561,23 @@
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="4">
-        <v>292.36699453659241</v>
-      </c>
-      <c r="C30" s="4">
-        <v>16.572631002862408</v>
-      </c>
-      <c r="D30" s="4">
-        <v>7.6122229942940196</v>
-      </c>
-      <c r="E30" s="4">
-        <v>7.5986482570591392</v>
-      </c>
-      <c r="F30" s="4">
-        <v>10.492430063409151</v>
-      </c>
-      <c r="G30" s="4">
-        <v>334.64292685421708</v>
+      <c r="B30" s="3">
+        <v>70.984669311566165</v>
+      </c>
+      <c r="C30" s="3">
+        <v>21.316834875754981</v>
+      </c>
+      <c r="D30" s="3">
+        <v>15.61540734173939</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8.8828285999925534</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5.4797017078686192</v>
+      </c>
+      <c r="G30" s="5">
+        <v>122.27944183692171</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1585,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -1598,23 +1599,23 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="4">
-        <v>101.14347219132161</v>
-      </c>
-      <c r="C31" s="4">
-        <v>22.832278664946781</v>
-      </c>
-      <c r="D31" s="4">
-        <v>20.292603609655679</v>
-      </c>
-      <c r="E31" s="4">
-        <v>5.5905261806953854</v>
-      </c>
-      <c r="F31" s="4">
-        <v>10.70888884533935</v>
-      </c>
-      <c r="G31" s="4">
-        <v>160.5677694919589</v>
+      <c r="B31" s="3">
+        <v>333.8615175446555</v>
+      </c>
+      <c r="C31" s="3">
+        <v>120.0783762284607</v>
+      </c>
+      <c r="D31" s="3">
+        <v>19.864200183149759</v>
+      </c>
+      <c r="E31" s="3">
+        <v>7.4757221930909781</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5.7355171899519863</v>
+      </c>
+      <c r="G31" s="5">
+        <v>487.015333339309</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1623,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
@@ -1636,23 +1637,23 @@
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="4">
-        <v>538.51584768868736</v>
-      </c>
-      <c r="C32" s="4">
-        <v>138.02726181896011</v>
-      </c>
-      <c r="D32" s="4">
-        <v>7.650706811451693</v>
-      </c>
-      <c r="E32" s="4">
-        <v>9.1491872035345878</v>
-      </c>
-      <c r="F32" s="4">
-        <v>13.634602986789851</v>
-      </c>
-      <c r="G32" s="4">
-        <v>706.97760650942382</v>
+      <c r="B32" s="3">
+        <v>1387.3558194004161</v>
+      </c>
+      <c r="C32" s="3">
+        <v>468.22500312342379</v>
+      </c>
+      <c r="D32" s="3">
+        <v>106.3344108006165</v>
+      </c>
+      <c r="E32" s="3">
+        <v>21.162692540401121</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6.0526764913916757</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1989.130602356249</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1661,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>19</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
@@ -1675,22 +1676,22 @@
         <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>69.096907979055743</v>
+        <v>670.27723679236976</v>
       </c>
       <c r="C33" s="3">
-        <v>39.917677031014328</v>
+        <v>212.54208591580391</v>
       </c>
       <c r="D33" s="3">
-        <v>29.9149219981168</v>
+        <v>31.658095586502871</v>
       </c>
       <c r="E33" s="3">
-        <v>23.37880887850692</v>
+        <v>12.06389864321117</v>
       </c>
       <c r="F33" s="3">
-        <v>15.6194951554734</v>
-      </c>
-      <c r="G33" s="3">
-        <v>177.92781104216721</v>
+        <v>6.2944229132268479</v>
+      </c>
+      <c r="G33" s="5">
+        <v>932.83573985111445</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1699,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1713,22 +1714,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>479.67165283534843</v>
+        <v>463.50583848849971</v>
       </c>
       <c r="C34" s="3">
-        <v>121.9284142391213</v>
+        <v>45.137596218474513</v>
       </c>
       <c r="D34" s="3">
-        <v>14.75300284835153</v>
+        <v>9.0210192342320674</v>
       </c>
       <c r="E34" s="3">
-        <v>11.64375684886584</v>
+        <v>7.0349782901740747</v>
       </c>
       <c r="F34" s="3">
-        <v>16.971855037057459</v>
-      </c>
-      <c r="G34" s="3">
-        <v>644.96868180874435</v>
+        <v>7.8315127576279204</v>
+      </c>
+      <c r="G34" s="5">
+        <v>532.53094498900828</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1737,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1750,23 +1751,23 @@
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="4">
-        <v>1254.7449605554809</v>
-      </c>
-      <c r="C35" s="4">
-        <v>172.320086031519</v>
-      </c>
-      <c r="D35" s="4">
-        <v>26.383347488318261</v>
-      </c>
-      <c r="E35" s="4">
-        <v>11.9614631575547</v>
-      </c>
-      <c r="F35" s="4">
-        <v>17.37068650040397</v>
-      </c>
-      <c r="G35" s="4">
-        <v>1482.780543733277</v>
+      <c r="B35" s="3">
+        <v>1066.856479198789</v>
+      </c>
+      <c r="C35" s="3">
+        <v>226.76536324561229</v>
+      </c>
+      <c r="D35" s="3">
+        <v>23.3146558720833</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8.7664401816601014</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7.887240726240309</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1333.5901792243851</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1775,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>6</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>12</v>
@@ -1789,22 +1790,22 @@
         <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>155.91106923942311</v>
+        <v>132.1459270823411</v>
       </c>
       <c r="C36" s="3">
-        <v>22.721152612083639</v>
+        <v>22.36101839167468</v>
       </c>
       <c r="D36" s="3">
-        <v>9.0241563728842351</v>
+        <v>14.1125092603934</v>
       </c>
       <c r="E36" s="3">
-        <v>17.298216425161431</v>
+        <v>9.6773391488062046</v>
       </c>
       <c r="F36" s="3">
-        <v>18.09238485321746</v>
-      </c>
-      <c r="G36" s="3">
-        <v>223.04697950276989</v>
+        <v>9.6295435981926296</v>
+      </c>
+      <c r="G36" s="5">
+        <v>187.92633748140801</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1813,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1826,23 +1827,23 @@
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="4">
-        <v>421.42346422234363</v>
-      </c>
-      <c r="C37" s="4">
-        <v>56.634831521256423</v>
-      </c>
-      <c r="D37" s="4">
-        <v>12.1272459985037</v>
-      </c>
-      <c r="E37" s="4">
-        <v>13.403540454597771</v>
-      </c>
-      <c r="F37" s="4">
-        <v>21.303672356215529</v>
-      </c>
-      <c r="G37" s="4">
-        <v>524.89275455291693</v>
+      <c r="B37" s="3">
+        <v>280.03150839186219</v>
+      </c>
+      <c r="C37" s="3">
+        <v>48.294461237179362</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6.1314325283405342</v>
+      </c>
+      <c r="E37" s="3">
+        <v>7.083352164625162</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10.02106068836383</v>
+      </c>
+      <c r="G37" s="5">
+        <v>351.56181501037111</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1851,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>12</v>
@@ -1865,22 +1866,22 @@
         <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>180.34227721677499</v>
+        <v>69.096907979055743</v>
       </c>
       <c r="C38" s="3">
-        <v>50.435833767242492</v>
+        <v>39.917677031014328</v>
       </c>
       <c r="D38" s="3">
-        <v>10.925041689902971</v>
+        <v>29.9149219981168</v>
       </c>
       <c r="E38" s="3">
-        <v>15.65484903507499</v>
+        <v>23.37880887850692</v>
       </c>
       <c r="F38" s="3">
-        <v>22.507188950098101</v>
-      </c>
-      <c r="G38" s="3">
-        <v>279.86519065909351</v>
+        <v>15.6194951554734</v>
+      </c>
+      <c r="G38" s="5">
+        <v>177.92781104216721</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1889,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1903,22 +1904,22 @@
         <v>11</v>
       </c>
       <c r="B39" s="3">
-        <v>994.67505161405188</v>
+        <v>479.67165283534843</v>
       </c>
       <c r="C39" s="3">
-        <v>148.98432707156149</v>
+        <v>121.9284142391213</v>
       </c>
       <c r="D39" s="3">
-        <v>11.09252000517721</v>
+        <v>14.75300284835153</v>
       </c>
       <c r="E39" s="3">
-        <v>13.439724753270379</v>
+        <v>11.64375684886584</v>
       </c>
       <c r="F39" s="3">
-        <v>22.790105853684508</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1190.981729297745</v>
+        <v>16.971855037057459</v>
+      </c>
+      <c r="G39" s="5">
+        <v>644.96868180874435</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1927,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1941,22 +1942,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>627.7205850272544</v>
+        <v>155.91106923942311</v>
       </c>
       <c r="C40" s="3">
-        <v>99.914751540916967</v>
+        <v>22.721152612083639</v>
       </c>
       <c r="D40" s="3">
-        <v>12.54377027559436</v>
+        <v>9.0241563728842351</v>
       </c>
       <c r="E40" s="3">
-        <v>22.76091251081516</v>
+        <v>17.298216425161431</v>
       </c>
       <c r="F40" s="3">
-        <v>23.75555456661554</v>
-      </c>
-      <c r="G40" s="3">
-        <v>786.69557392119634</v>
+        <v>18.09238485321746</v>
+      </c>
+      <c r="G40" s="5">
+        <v>223.04697950276989</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1965,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1979,22 +1980,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>417.64879586773259</v>
+        <v>180.34227721677499</v>
       </c>
       <c r="C41" s="3">
-        <v>33.34745511543656</v>
+        <v>50.435833767242492</v>
       </c>
       <c r="D41" s="3">
-        <v>15.356771979911141</v>
+        <v>10.925041689902971</v>
       </c>
       <c r="E41" s="3">
-        <v>19.36083742197712</v>
+        <v>15.65484903507499</v>
       </c>
       <c r="F41" s="3">
-        <v>31.190731876282229</v>
-      </c>
-      <c r="G41" s="3">
-        <v>516.90459226133953</v>
+        <v>22.507188950098101</v>
+      </c>
+      <c r="G41" s="5">
+        <v>279.86519065909351</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2003,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2017,22 +2018,22 @@
         <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>977.29572950041438</v>
+        <v>994.67505161405188</v>
       </c>
       <c r="C42" s="3">
-        <v>187.82535546221891</v>
+        <v>148.98432707156149</v>
       </c>
       <c r="D42" s="3">
-        <v>26.748309597565981</v>
+        <v>11.09252000517721</v>
       </c>
       <c r="E42" s="3">
-        <v>16.667328345494031</v>
+        <v>13.439724753270379</v>
       </c>
       <c r="F42" s="3">
-        <v>33.285069989378229</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1241.8217928950719</v>
+        <v>22.790105853684508</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1190.981729297745</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2041,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2055,22 +2056,22 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>1072.7071956029399</v>
+        <v>627.7205850272544</v>
       </c>
       <c r="C43" s="3">
-        <v>354.33805393793853</v>
+        <v>99.914751540916967</v>
       </c>
       <c r="D43" s="3">
-        <v>83.320264870311775</v>
+        <v>12.54377027559436</v>
       </c>
       <c r="E43" s="3">
-        <v>69.918809502325388</v>
+        <v>22.76091251081516</v>
       </c>
       <c r="F43" s="3">
-        <v>41.260104053456153</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1621.5444279669721</v>
+        <v>23.75555456661554</v>
+      </c>
+      <c r="G43" s="5">
+        <v>786.69557392119634</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2079,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2093,22 +2094,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>748.90138448283938</v>
+        <v>417.64879586773259</v>
       </c>
       <c r="C44" s="3">
-        <v>125.5045545948514</v>
+        <v>33.34745511543656</v>
       </c>
       <c r="D44" s="3">
-        <v>26.311904909039299</v>
+        <v>15.356771979911141</v>
       </c>
       <c r="E44" s="3">
-        <v>39.211860669960899</v>
+        <v>19.36083742197712</v>
       </c>
       <c r="F44" s="3">
-        <v>60.658475972541062</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1000.5881806292321</v>
+        <v>31.190731876282229</v>
+      </c>
+      <c r="G44" s="5">
+        <v>516.90459226133953</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2117,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2130,23 +2131,23 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="4">
-        <v>76.080050716516382</v>
-      </c>
-      <c r="C45" s="4">
-        <v>75.72266663709371</v>
-      </c>
-      <c r="D45" s="4">
-        <v>16.10516240164813</v>
-      </c>
-      <c r="E45" s="4">
-        <v>42.430493110105353</v>
-      </c>
-      <c r="F45" s="4">
-        <v>91.563283328426223</v>
-      </c>
-      <c r="G45" s="4">
-        <v>301.90165619378979</v>
+      <c r="B45" s="3">
+        <v>977.29572950041438</v>
+      </c>
+      <c r="C45" s="3">
+        <v>187.82535546221891</v>
+      </c>
+      <c r="D45" s="3">
+        <v>26.748309597565981</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16.667328345494031</v>
+      </c>
+      <c r="F45" s="3">
+        <v>33.285069989378229</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1241.8217928950719</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2155,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>8</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
         <v>12</v>
@@ -2168,23 +2169,23 @@
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="4">
-        <v>59.778547427244362</v>
-      </c>
-      <c r="C46" s="4">
-        <v>10.42457440460881</v>
-      </c>
-      <c r="D46" s="4">
-        <v>6.9699348422613054</v>
-      </c>
-      <c r="E46" s="4">
-        <v>19.365447309807379</v>
-      </c>
-      <c r="F46" s="4">
-        <v>94.373569823942034</v>
-      </c>
-      <c r="G46" s="4">
-        <v>190.91207380786389</v>
+      <c r="B46" s="3">
+        <v>1072.7071956029399</v>
+      </c>
+      <c r="C46" s="3">
+        <v>354.33805393793853</v>
+      </c>
+      <c r="D46" s="3">
+        <v>83.320264870311775</v>
+      </c>
+      <c r="E46" s="3">
+        <v>69.918809502325388</v>
+      </c>
+      <c r="F46" s="3">
+        <v>41.260104053456153</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1621.5444279669721</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2193,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>17</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>12</v>
@@ -2207,22 +2208,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="3">
-        <v>222.23501733900639</v>
+        <v>748.90138448283938</v>
       </c>
       <c r="C47" s="3">
-        <v>90.223324008942996</v>
+        <v>125.5045545948514</v>
       </c>
       <c r="D47" s="3">
-        <v>18.703023821647321</v>
+        <v>26.311904909039299</v>
       </c>
       <c r="E47" s="3">
-        <v>30.298302245199238</v>
+        <v>39.211860669960899</v>
       </c>
       <c r="F47" s="3">
-        <v>97.961006027960281</v>
-      </c>
-      <c r="G47" s="3">
-        <v>459.42067344275631</v>
+        <v>60.658475972541062</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1000.5881806292321</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2231,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -2244,23 +2245,23 @@
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="4">
-        <v>306.28148078410152</v>
-      </c>
-      <c r="C48" s="4">
-        <v>51.446613241267769</v>
-      </c>
-      <c r="D48" s="4">
-        <v>48.936191525250571</v>
-      </c>
-      <c r="E48" s="4">
-        <v>67.155981156361833</v>
-      </c>
-      <c r="F48" s="4">
-        <v>119.583430744352</v>
-      </c>
-      <c r="G48" s="4">
-        <v>593.40369745133353</v>
+      <c r="B48" s="3">
+        <v>222.23501733900639</v>
+      </c>
+      <c r="C48" s="3">
+        <v>90.223324008942996</v>
+      </c>
+      <c r="D48" s="3">
+        <v>18.703023821647321</v>
+      </c>
+      <c r="E48" s="3">
+        <v>30.298302245199238</v>
+      </c>
+      <c r="F48" s="3">
+        <v>97.961006027960281</v>
+      </c>
+      <c r="G48" s="5">
+        <v>459.42067344275631</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2269,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>20</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
         <v>12</v>
@@ -2297,7 +2298,7 @@
       <c r="F49" s="3">
         <v>266.23763390221762</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="5">
         <v>1041.35738999452</v>
       </c>
       <c r="H49">
@@ -2335,7 +2336,7 @@
       <c r="F50" s="3">
         <v>1060.796531350094</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="5">
         <v>15991.5137462727</v>
       </c>
       <c r="H50">
@@ -2355,9 +2356,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K57">
-    <sortCondition ref="F2:F57"/>
-    <sortCondition ref="C2:C57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
